--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C91CE07B-6419-47B9-BAC7-4258973F04E4}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F95A6C-3892-4959-ACCF-8DC09189AF8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
+    <sheet name="WorstCell Threshold" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>KPI Name</t>
   </si>
@@ -512,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,4 +666,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F95A6C-3892-4959-ACCF-8DC09189AF8E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E2410E-B41E-4D43-962A-EE634418A8BD}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>KPI Name</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>5G Total Traffic Volume</t>
+  </si>
+  <si>
+    <t>NR_50823a</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +237,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,6 +255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,6 +834,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,25 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E2410E-B41E-4D43-962A-EE634418A8BD}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4692CF7B-2AB0-42BC-9CB3-2683E5F1E73C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
     <sheet name="WorstCell Threshold" sheetId="2" r:id="rId2"/>
+    <sheet name="CQI Threshold" sheetId="3" r:id="rId3"/>
+    <sheet name="Province Area" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>KPI Name</t>
   </si>
@@ -104,13 +117,85 @@
   </si>
   <si>
     <t>NR_50823a</t>
+  </si>
+  <si>
+    <t>4G 4T4R band 1800/2100 Mhz</t>
+  </si>
+  <si>
+    <t>4G 2T2R band 1800/2100 Mhz</t>
+  </si>
+  <si>
+    <t>4G band 900 Mhz</t>
+  </si>
+  <si>
+    <t>Config ATP</t>
+  </si>
+  <si>
+    <t>M11;M12;M13</t>
+  </si>
+  <si>
+    <t>M41;M42;M43</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>Tỉnh không trọng điểm</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>Tỉnh trọng điểm</t>
+  </si>
+  <si>
+    <t>HUG</t>
+  </si>
+  <si>
+    <t>KGG</t>
+  </si>
+  <si>
+    <t>LDG</t>
+  </si>
+  <si>
+    <t>NTN</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>TNH</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>≤ 5%</t>
+  </si>
+  <si>
+    <t>≤ 3%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,30 +205,62 @@
     </font>
     <font>
       <sz val="9.9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.9"/>
       <color rgb="FF111827"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9.9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF111827"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.9"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF124191"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,32 +307,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCBD5E1"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCBD5E1"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCBD5E1"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCBD5E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE5E7EB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE5E7EB"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE5E7EB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE5E7EB"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,27 +325,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,151 +650,151 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="12">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="12">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="12">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -685,170 +808,385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC16FB24-D503-4EE8-9168-67B88AEA3778}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FB0C9-35AC-4F99-A70C-97F93438E30A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4692CF7B-2AB0-42BC-9CB3-2683E5F1E73C}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD0A70D-8FA5-4F0C-B599-92340A877AD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>KPI Name</t>
   </si>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,57 +747,6 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -808,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC16FB24-D503-4EE8-9168-67B88AEA3778}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD0A70D-8FA5-4F0C-B599-92340A877AD4}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11EE705-F34B-4104-9580-116C212F033C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>KPI Name</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>≤ 3%</t>
+  </si>
+  <si>
+    <t>DNO</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -321,11 +324,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +667,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FB0C9-35AC-4F99-A70C-97F93438E30A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,6 +1155,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11EE705-F34B-4104-9580-116C212F033C}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF644E6A-8361-45A0-933A-84EE98974FD5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="4830" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>KPI Name</t>
   </si>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,21 +947,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC16FB24-D503-4EE8-9168-67B88AEA3778}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -969,49 +968,37 @@
         <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="6">
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1024,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FB0C9-35AC-4F99-A70C-97F93438E30A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF644E6A-8361-45A0-933A-84EE98974FD5}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E9B6DB-777E-4EFD-8ABB-048A1D65D755}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="4830" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>M11;M12;M13</t>
   </si>
   <si>
-    <t>M41;M42;M43</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>DNO</t>
+  </si>
+  <si>
+    <t>M41;M42;M43;E11;E12;E13</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,13 +946,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -965,7 +961,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>19</v>
@@ -996,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6">
         <v>8</v>
@@ -1023,134 +1019,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E9B6DB-777E-4EFD-8ABB-048A1D65D755}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83E8E4D-7297-4847-8324-7E3EB8257040}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <t>DNO</t>
   </si>
   <si>
-    <t>M41;M42;M43;E11;E12;E13</t>
+    <t>M41;M42;M43;E11;E12;E13;E41;E42;E43</t>
   </si>
 </sst>
 </file>
@@ -395,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,13 +950,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83E8E4D-7297-4847-8324-7E3EB8257040}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B3552C1-4788-47BA-81D3-5C68F77B661C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>KPI Name</t>
   </si>
@@ -192,6 +192,108 @@
   </si>
   <si>
     <t>M41;M42;M43;E11;E12;E13;E41;E42;E43</t>
+  </si>
+  <si>
+    <t>Total E-UTRAN RRC conn stp SR</t>
+  </si>
+  <si>
+    <t>E-UTRAN E-RAB stp SR</t>
+  </si>
+  <si>
+    <t>E-UTRAN Init E-RAB acc</t>
+  </si>
+  <si>
+    <t>E-RAB DR RAN</t>
+  </si>
+  <si>
+    <t>E-UTRAN Intra-Freq HO SR</t>
+  </si>
+  <si>
+    <t>E-UTRAN Inter-Freq HO SR</t>
+  </si>
+  <si>
+    <t>Inter RAT HO SR</t>
+  </si>
+  <si>
+    <t>E-RAB Stp SR, QCI1</t>
+  </si>
+  <si>
+    <t>E-RAB QCI1 DR, RAN view</t>
+  </si>
+  <si>
+    <t>IntraFreq HO SR QCI1</t>
+  </si>
+  <si>
+    <t>InterFreq HO SR QCI1</t>
+  </si>
+  <si>
+    <t>Init Contx stp SR for CSFB</t>
+  </si>
+  <si>
+    <t>Average CQI</t>
+  </si>
+  <si>
+    <t>PDCP SDU Volume, DL</t>
+  </si>
+  <si>
+    <t>PDCP SDU Volume, UL</t>
+  </si>
+  <si>
+    <t>Cell Avail</t>
+  </si>
+  <si>
+    <t>LTE_5218F</t>
+  </si>
+  <si>
+    <t>LTE_5017A</t>
+  </si>
+  <si>
+    <t>LTE_5060I</t>
+  </si>
+  <si>
+    <t>LTE_5025F</t>
+  </si>
+  <si>
+    <t>LTE_5568A</t>
+  </si>
+  <si>
+    <t>LTE_5114A</t>
+  </si>
+  <si>
+    <t>LTE_5195A</t>
+  </si>
+  <si>
+    <t>LTE_5204B</t>
+  </si>
+  <si>
+    <t>LTE_5572C</t>
+  </si>
+  <si>
+    <t>LTE_5886A</t>
+  </si>
+  <si>
+    <t>LTE_5884A</t>
+  </si>
+  <si>
+    <t>LTE_5524A</t>
+  </si>
+  <si>
+    <t>LTE_5427B</t>
+  </si>
+  <si>
+    <t>LTE_5212A</t>
+  </si>
+  <si>
+    <t>LTE_5213A</t>
+  </si>
+  <si>
+    <t>LTE_5750A</t>
+  </si>
+  <si>
+    <t>[#]</t>
+  </si>
+  <si>
+    <t>[MB]</t>
   </si>
 </sst>
 </file>
@@ -339,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,17 +769,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -764,7 +869,243 @@
         <v>95</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="14">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="'Documentation for Daily'!A14:A14" display="'Documentation for Daily'!A14:A14" xr:uid="{4F978D32-22D2-4BB2-B3AE-A6F0593F91E7}"/>
+    <hyperlink ref="A7" location="'Documentation for Daily'!A15:A15" display="'Documentation for Daily'!A15:A15" xr:uid="{F83C7919-0DB9-49C8-BD41-C36B4A08446C}"/>
+    <hyperlink ref="A8" location="'Documentation for Daily'!A16:A16" display="'Documentation for Daily'!A16:A16" xr:uid="{178703F7-5C18-4A34-B731-9D5A750D1388}"/>
+    <hyperlink ref="A9" location="'Documentation for Daily'!A17:A17" display="'Documentation for Daily'!A17:A17" xr:uid="{5FD27E24-F51D-47AB-9967-BB1B7D3E9C40}"/>
+    <hyperlink ref="A10" location="'Documentation for Daily'!A18:A18" display="'Documentation for Daily'!A18:A18" xr:uid="{6AF2CF7F-FC7C-4F89-B35B-0B68B59A5AA5}"/>
+    <hyperlink ref="A11" location="'Documentation for Daily'!A19:A19" display="'Documentation for Daily'!A19:A19" xr:uid="{70E024C9-D90E-40EB-94D0-3A96CA100F31}"/>
+    <hyperlink ref="A12" location="'Documentation for Daily'!A20:A20" display="'Documentation for Daily'!A20:A20" xr:uid="{50762192-9A0E-4170-B2AA-2F647350A53F}"/>
+    <hyperlink ref="A13" location="'Documentation for Daily'!A21:A21" display="'Documentation for Daily'!A21:A21" xr:uid="{4411C860-258D-4AEC-BE0C-B3963AA064B9}"/>
+    <hyperlink ref="A14" location="'Documentation for Daily'!A22:A22" display="'Documentation for Daily'!A22:A22" xr:uid="{CB7E6D76-45CC-45C5-8631-7F0F1F69644F}"/>
+    <hyperlink ref="A15" location="'Documentation for Daily'!A23:A23" display="'Documentation for Daily'!A23:A23" xr:uid="{21C38B75-44CF-459B-9154-27FCB9437D94}"/>
+    <hyperlink ref="A16" location="'Documentation for Daily'!A24:A24" display="'Documentation for Daily'!A24:A24" xr:uid="{13E9254A-08B4-48F0-A8DC-AF47A45B8E57}"/>
+    <hyperlink ref="A17" location="'Documentation for Daily'!A25:A25" display="'Documentation for Daily'!A25:A25" xr:uid="{633D9D34-D081-421D-A860-E6BB1270852C}"/>
+    <hyperlink ref="A18" location="'Documentation for Daily'!A26:A26" display="'Documentation for Daily'!A26:A26" xr:uid="{EE37F32A-7344-416A-9561-2FD029FE2F99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -772,17 +1113,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A10" sqref="A10:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -940,7 +1281,297 @@
         <v>100</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" location="'Documentation for Daily'!A14:A14" display="'Documentation for Daily'!A14:A14" xr:uid="{B292C08E-3072-4E49-9C21-82AFBCCB5BA1}"/>
+    <hyperlink ref="A11" location="'Documentation for Daily'!A15:A15" display="'Documentation for Daily'!A15:A15" xr:uid="{2E51572D-19DD-4921-AA0D-C68E851DD857}"/>
+    <hyperlink ref="A12" location="'Documentation for Daily'!A16:A16" display="'Documentation for Daily'!A16:A16" xr:uid="{3039CFD0-10C8-49C8-9796-B9FBC816A306}"/>
+    <hyperlink ref="A13" location="'Documentation for Daily'!A17:A17" display="'Documentation for Daily'!A17:A17" xr:uid="{C251BE35-E2BD-4D70-97C5-229F8B437D45}"/>
+    <hyperlink ref="A14" location="'Documentation for Daily'!A18:A18" display="'Documentation for Daily'!A18:A18" xr:uid="{9B4A70AE-9F86-4245-9C8F-F1CF5C7D1F22}"/>
+    <hyperlink ref="A15" location="'Documentation for Daily'!A19:A19" display="'Documentation for Daily'!A19:A19" xr:uid="{6261BED8-4DA4-40A4-9AB5-F304782FD842}"/>
+    <hyperlink ref="A16" location="'Documentation for Daily'!A20:A20" display="'Documentation for Daily'!A20:A20" xr:uid="{262C5264-FE54-467E-A7FB-90CC9CA7FA38}"/>
+    <hyperlink ref="A17" location="'Documentation for Daily'!A21:A21" display="'Documentation for Daily'!A21:A21" xr:uid="{27BC7E0F-48D1-420A-8CF0-7F266AA0BAFD}"/>
+    <hyperlink ref="A18" location="'Documentation for Daily'!A22:A22" display="'Documentation for Daily'!A22:A22" xr:uid="{CA951CF7-15A8-4436-9DEB-A5E599CA922A}"/>
+    <hyperlink ref="A19" location="'Documentation for Daily'!A23:A23" display="'Documentation for Daily'!A23:A23" xr:uid="{334ABD55-3BF2-415C-8868-4A98A2D89C55}"/>
+    <hyperlink ref="A20" location="'Documentation for Daily'!A24:A24" display="'Documentation for Daily'!A24:A24" xr:uid="{7083E431-4525-4B66-A798-B529C7D39789}"/>
+    <hyperlink ref="A21" location="'Documentation for Daily'!A25:A25" display="'Documentation for Daily'!A25:A25" xr:uid="{4F5D2B2D-D37C-48D1-B3F1-FA1567C1187C}"/>
+    <hyperlink ref="A22" location="'Documentation for Daily'!A26:A26" display="'Documentation for Daily'!A26:A26" xr:uid="{1DD43230-F0C2-4A73-90A3-9DA605BAAD7E}"/>
+    <hyperlink ref="A23" location="'Documentation for Daily'!A35:A35" display="'Documentation for Daily'!A35:A35" xr:uid="{6C2A89A2-4CA5-4057-943C-51B06236A140}"/>
+    <hyperlink ref="A24" location="'Documentation for Daily'!A36:A36" display="'Documentation for Daily'!A36:A36" xr:uid="{F6F2A519-6CE8-4BAF-8208-D6DD2A533EF8}"/>
+    <hyperlink ref="A25" location="'Documentation for Daily'!A37:A37" display="'Documentation for Daily'!A37:A37" xr:uid="{159C61F5-CC38-4B09-838D-99C29D4F662F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -949,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC16FB24-D503-4EE8-9168-67B88AEA3778}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1643,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B3552C1-4788-47BA-81D3-5C68F77B661C}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861267F3-4319-4513-8545-6A527B5CE4EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Threshold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>KPI Name</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>operator</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>5G Total Traffic Volume</t>
@@ -441,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,9 +479,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +494,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -871,10 +861,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
@@ -882,16 +872,16 @@
       <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>5</v>
@@ -899,16 +889,16 @@
       <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -916,16 +906,16 @@
       <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>5</v>
@@ -933,16 +923,16 @@
       <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
@@ -950,16 +940,16 @@
       <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
@@ -967,16 +957,16 @@
       <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
@@ -984,16 +974,16 @@
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
@@ -1001,16 +991,16 @@
       <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>5</v>
@@ -1018,16 +1008,16 @@
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>5</v>
@@ -1035,16 +1025,16 @@
       <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>5</v>
@@ -1052,16 +1042,16 @@
       <c r="D16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>5</v>
@@ -1069,24 +1059,24 @@
       <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>8</v>
       </c>
     </row>
@@ -1115,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033CC21-EA6A-4EBA-B052-69011B17EDFA}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,10 +1214,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,10 +1231,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,18 +1248,18 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>14</v>
@@ -1283,10 +1273,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
@@ -1294,16 +1284,16 @@
       <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
@@ -1311,16 +1301,16 @@
       <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
@@ -1328,16 +1318,16 @@
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
@@ -1345,16 +1335,16 @@
       <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>5</v>
@@ -1362,16 +1352,16 @@
       <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>5</v>
@@ -1379,16 +1369,16 @@
       <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>5</v>
@@ -1396,16 +1386,16 @@
       <c r="D16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>5</v>
@@ -1413,16 +1403,16 @@
       <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>5</v>
@@ -1430,16 +1420,16 @@
       <c r="D18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>5</v>
@@ -1447,16 +1437,16 @@
       <c r="D19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>5</v>
@@ -1464,16 +1454,16 @@
       <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>5</v>
@@ -1481,76 +1471,76 @@
       <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1583,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>19</v>
@@ -1604,10 +1594,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6">
         <v>9</v>
@@ -1615,7 +1605,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -1624,10 +1614,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6">
         <v>8</v>
@@ -1654,134 +1644,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/KPI Threshhold.xlsx
+++ b/KPI Threshhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8120317ac11a6f9b/4. Ứng dụng lập trình C^N/KPI Chart Viewer/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861267F3-4319-4513-8545-6A527B5CE4EA}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC1048CD919B51145BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA63ACC-9097-43BE-9FD0-148F242DF020}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="CQI Threshold" sheetId="3" r:id="rId3"/>
     <sheet name="Province Area" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Province Area'!$A$1:$C$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="95">
   <si>
     <t>KPI Name</t>
   </si>
@@ -291,6 +294,39 @@
   </si>
   <si>
     <t>[MB]</t>
+  </si>
+  <si>
+    <t>DLK</t>
+  </si>
+  <si>
+    <t>HNI</t>
+  </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>DBN</t>
+  </si>
+  <si>
+    <t>GLI</t>
+  </si>
+  <si>
+    <t>HGG</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>LCU</t>
+  </si>
+  <si>
+    <t>LSN</t>
+  </si>
+  <si>
+    <t>SLA</t>
   </si>
 </sst>
 </file>
@@ -400,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -423,22 +459,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +784,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,7 +1128,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FB0C9-35AC-4F99-A70C-97F93438E30A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,41 +1709,41 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
+      <c r="A8" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>36</v>
@@ -1731,50 +1753,172 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C23" xr:uid="{046FB0C9-35AC-4F99-A70C-97F93438E30A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>